--- a/11-Parameters/LhARABeamLine-Params-Gauss-Solenoid.xlsx
+++ b/11-Parameters/LhARABeamLine-Params-Gauss-Solenoid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58921F2D-0FBB-B94D-86DC-B9FA62780CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6927D6-EFA7-584D-B340-711FC49EDBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="740" windowWidth="18500" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,7 +888,7 @@
         <v>64</v>
       </c>
       <c r="F4" s="6">
-        <v>0.5</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>

--- a/11-Parameters/LhARABeamLine-Params-Gauss-Solenoid.xlsx
+++ b/11-Parameters/LhARABeamLine-Params-Gauss-Solenoid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6927D6-EFA7-584D-B340-711FC49EDBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78ABA75-07F3-C743-A726-3723E6FFD196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="740" windowWidth="18500" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="740" windowWidth="18500" windowHeight="31660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LhARABeamLine-Params-LsrDrvn" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="84">
   <si>
     <t>Parameter</t>
   </si>
@@ -282,6 +282,24 @@
   </si>
   <si>
     <t>Kinetic energy</t>
+  </si>
+  <si>
+    <t>RPLCswitch</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -485,9 +503,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -525,7 +543,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -631,7 +649,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,7 +791,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -781,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,7 +813,7 @@
     <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2368,19 +2386,19 @@
         <v>54</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F65" s="9">
-        <v>0.8</v>
+        <v>1.570796327</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H65" s="9"/>
     </row>
@@ -2392,19 +2410,19 @@
         <v>54</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F66" s="9">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H66" s="9"/>
     </row>
@@ -2416,17 +2434,19 @@
         <v>54</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="E67" s="9" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F67" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H67" s="9"/>
     </row>
@@ -2438,21 +2458,23 @@
         <v>54</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="E68" s="9" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F68" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>1</v>
       </c>
@@ -2460,17 +2482,19 @@
         <v>54</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E69" s="9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F69" s="9">
-        <v>22.544</v>
+        <v>0.8</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H69" s="9"/>
     </row>
@@ -2482,17 +2506,19 @@
         <v>54</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E70" s="9" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F70" s="9">
-        <v>0.4</v>
+        <v>45</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H70" s="9"/>
     </row>
@@ -2504,21 +2530,21 @@
         <v>54</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F71" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>1</v>
       </c>
@@ -2526,21 +2552,21 @@
         <v>54</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F72" s="9">
-        <v>31.376799999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>1</v>
       </c>
@@ -2548,17 +2574,17 @@
         <v>54</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F73" s="9">
-        <v>0.2</v>
+        <v>22.544</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H73" s="9"/>
     </row>
@@ -2570,21 +2596,21 @@
         <v>54</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>1</v>
       </c>
@@ -2592,21 +2618,21 @@
         <v>54</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F75" s="9">
-        <v>31.5123</v>
+        <v>0.1</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>1</v>
       </c>
@@ -2614,179 +2640,177 @@
         <v>54</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F76" s="9">
+        <v>31.376799999999999</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
+        <v>1</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
+        <v>1</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
+        <v>1</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F79" s="9">
+        <v>31.5123</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="9">
+        <v>1</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="9">
         <f>0.2-0.005</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="9">
-        <v>1</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="9">
+      <c r="G80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="9">
+        <v>1</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="9">
         <v>0.01</v>
       </c>
-      <c r="G77" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="9">
-        <v>1</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="9">
+      <c r="G81" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="9">
+        <v>1</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="9">
         <f>0.2-0.005</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="9"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="9">
-        <v>1</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="G82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="9">
+        <v>1</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="9"/>
-    </row>
-    <row r="80" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A80" s="9">
-        <v>1</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F80" s="9">
-        <f>F75</f>
-        <v>31.5123</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H80" s="9"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="9">
-        <v>1</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="9">
-        <v>1</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="9"/>
-    </row>
-    <row r="83" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A83" s="9">
-        <v>1</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F83" s="9">
-        <f>F72</f>
-        <v>31.376799999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>1</v>
       </c>
@@ -2794,17 +2818,18 @@
         <v>54</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F84" s="9">
-        <v>0.4</v>
+        <f>F79</f>
+        <v>31.5123</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H84" s="9"/>
     </row>
@@ -2816,21 +2841,21 @@
         <v>54</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F85" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>1</v>
       </c>
@@ -2838,22 +2863,21 @@
         <v>54</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F86" s="9">
-        <f>F69</f>
-        <v>22.544</v>
+        <v>0.1</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>1</v>
       </c>
@@ -2861,17 +2885,18 @@
         <v>54</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F87" s="9">
-        <v>0.2</v>
+        <f>F76</f>
+        <v>31.376799999999999</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H87" s="9"/>
     </row>
@@ -2883,16 +2908,14 @@
         <v>54</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="9">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>14</v>
@@ -2907,23 +2930,21 @@
         <v>54</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F89" s="9">
-        <v>45</v>
+        <v>0.1</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>1</v>
       </c>
@@ -2931,41 +2952,134 @@
         <v>54</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F90" s="9">
+        <f>F73</f>
+        <v>22.544</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="9">
+        <v>1</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="9">
         <v>0.2</v>
       </c>
-      <c r="G90" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="9"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
-        <v>1</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="7">
+      <c r="G91" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="9">
+        <v>1</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="9"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="9">
+        <v>1</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="9">
+        <v>45</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="9">
+        <v>1</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>1</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="7">
         <v>2</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="7"/>
+      <c r="G95" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
